--- a/example_data/sample_metadata.xlsx
+++ b/example_data/sample_metadata.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nanastasiadou\Bioinfo\Projects\NatStuff\Seq2Viz\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nanastasiadou\Bioinfo\Projects\NatStuff\Seq2Viz\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7A8187-44BC-4E1E-8922-C6384C7A6842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2310369-3C28-4EAD-AD5F-453D43E64181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
-    <sheet name="Φύλλο2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,89 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>control</t>
   </si>
   <si>
-    <t>ibrutinib</t>
-  </si>
-  <si>
-    <t>13-TB0545</t>
-  </si>
-  <si>
-    <t>19-TB0109</t>
-  </si>
-  <si>
-    <t>14-TB0242</t>
-  </si>
-  <si>
-    <t>17-TB0018</t>
-  </si>
-  <si>
-    <t>18-TB0277</t>
-  </si>
-  <si>
-    <t>18-TB0170</t>
-  </si>
-  <si>
-    <t>13TB0545_control</t>
-  </si>
-  <si>
-    <t>13TB0545_IB</t>
-  </si>
-  <si>
-    <t>19TB0109_control</t>
-  </si>
-  <si>
-    <t>19TB0109_IB</t>
-  </si>
-  <si>
-    <t>14TB0242_control</t>
-  </si>
-  <si>
-    <t>14TB0242_IB</t>
-  </si>
-  <si>
-    <t>17TB0018_control</t>
-  </si>
-  <si>
-    <t>17TB0018_IB</t>
-  </si>
-  <si>
-    <t>18TB0277_control</t>
-  </si>
-  <si>
-    <t>18TB0277_IB</t>
-  </si>
-  <si>
-    <t>18TB0170_control</t>
-  </si>
-  <si>
-    <t>18TB0170_IB</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Run_Date</t>
-  </si>
-  <si>
-    <t>pathtoanalysis</t>
-  </si>
-  <si>
-    <t>/work/kate_mallou/RNAseq_analysis_Subset1_internal_samples_28012025</t>
-  </si>
-  <si>
-    <t>/mnt/new_home/bio_tmp/natanastas_analysis/RNAseq_analysis/Nancy/run_20250114</t>
-  </si>
-  <si>
     <t>sampleID</t>
   </si>
   <si>
@@ -143,13 +64,16 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>treatment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,36 +88,16 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -220,20 +124,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,7 +469,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,323 +480,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>28012025</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>14012025</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>14012025</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>14012025</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>14012025</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>28012025</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>14012025</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>14012025</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>28012025</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>14012025</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>14012025</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>14012025</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/example_data/sample_metadata.xlsx
+++ b/example_data/sample_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nanastasiadou\Bioinfo\Projects\NatStuff\Seq2Viz\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2310369-3C28-4EAD-AD5F-453D43E64181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084D026-C8C6-4307-AADE-BD6C84F57519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34095" yWindow="2910" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/example_data/sample_metadata.xlsx
+++ b/example_data/sample_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nanastasiadou\Bioinfo\Projects\NatStuff\Seq2Viz\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084D026-C8C6-4307-AADE-BD6C84F57519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68171E05-7973-4B3A-9168-8BF8D3A314C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34095" yWindow="2910" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>patientID</t>
   </si>
   <si>
-    <t>Group1</t>
-  </si>
-  <si>
     <t>S1_control</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,15 +487,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -503,21 +503,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -525,21 +525,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
